--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -5,19 +5,19 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BCRbQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\vensim test\Updated power sector data - 20200624\BCRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81262F1-6A48-4CCE-8AED-912317B27A55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98790E33-361F-49B1-B277-28B33C670509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
     <sheet name="Calculation" sheetId="19" r:id="rId2"/>
     <sheet name="Thermal+Lignit - Mar 16to May19" sheetId="20" r:id="rId3"/>
     <sheet name="Gas-based_DG - Sep 15to May19" sheetId="24" r:id="rId4"/>
-    <sheet name="Jun 19to Sep19" sheetId="23" r:id="rId5"/>
+    <sheet name="Jun 19to Dec19" sheetId="23" r:id="rId5"/>
     <sheet name="By 2022" sheetId="21" r:id="rId6"/>
     <sheet name="By 2027" sheetId="22" r:id="rId7"/>
     <sheet name="BCRbQ" sheetId="2" r:id="rId8"/>
@@ -44,6 +44,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Deepthi Swamy</author>
+    <author>tc={515DFB33-5F08-4F59-808E-9A3C7844F017}</author>
+    <author>tc={CB300649-A9A3-4153-9731-46ACBBB398F7}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1A07661B-D743-4A21-9949-39BB9DB42183}">
@@ -119,29 +121,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{31EDE306-A735-451B-8C85-8D4BC958ABE9}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{515DFB33-5F08-4F59-808E-9A3C7844F017}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Deepthi Swamy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-actual values till Sept'19 + trend based estimate for Oct-Dec
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    actual values</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="2" shapeId="0" xr:uid="{CB300649-A9A3-4153-9731-46ACBBB398F7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ** See note below</t>
       </text>
     </comment>
   </commentList>
@@ -233,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="427">
   <si>
     <t>nuclear</t>
   </si>
@@ -11721,9 +11714,6 @@
   </si>
   <si>
     <t>(Actual) Additional (Gas based/ DG Set) Units Retired [Since Sept.'15 to May'19]</t>
-  </si>
-  <si>
-    <t>(Actual) Reported monthly retirements [Jun '19 to Sep '19]</t>
   </si>
   <si>
     <t xml:space="preserve"> Table ‘A’ : Coal/Lignite based Thermal Units retired [Since March'16 to May'19]</t>
@@ -11951,9 +11941,6 @@
 Plant, Chennai (4x50 MW)</t>
   </si>
   <si>
-    <t>Jun '19 to Sep '19</t>
-  </si>
-  <si>
     <t>Table name: All India Installed Capacity (in MW) of power stations (Utilities) - Refer to Notes section (B) below the table</t>
   </si>
   <si>
@@ -12093,12 +12080,6 @@
     <t>1. National Electricity Plan</t>
   </si>
   <si>
-    <t>2. Lignite retirements from CEA Montly archives (Installed capacity reports) (Jan '17 to Sep '19)</t>
-  </si>
-  <si>
-    <t>Lignite retirements from CEA Montly archives (Installed capacity reports) (Jan '17 to Sep '19)</t>
-  </si>
-  <si>
     <t>NEYVELI TPS-I</t>
   </si>
   <si>
@@ -12127,95 +12108,9 @@
 (with Trombay)</t>
   </si>
   <si>
-    <t>planned</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>The actual retirements for 2016-18 are used in the 2017-22 period. For 2019, as complete data is not available till December, planned value is used</t>
-  </si>
-  <si>
-    <t>actual 
-(till Sep 19)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Jan '19</t>
-  </si>
-  <si>
-    <t>Feb '19</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Apr '19</t>
-  </si>
-  <si>
-    <t>May '19</t>
-  </si>
-  <si>
-    <t>Oct '19</t>
-  </si>
-  <si>
-    <t>Nov '19</t>
-  </si>
-  <si>
-    <t>Dec '19</t>
-  </si>
-  <si>
-    <t>U-3, U-6 &amp; U-8 of KOTHAGUDEM TPS (60+2*120=300 MW) has been retired from state sector of Telangana</t>
-  </si>
-  <si>
-    <t>U-7 of NEYVELI TPS- I (100 MW) has been retired from central sector of Southern Region.</t>
-  </si>
-  <si>
-    <t>MW-coal</t>
-  </si>
-  <si>
-    <t>MW-lignite</t>
-  </si>
-  <si>
-    <t>MW-diesel</t>
-  </si>
-  <si>
-    <t>Unit-1 to 6 (6 x 21.32 =127.92 MW) of YELHANKA (DG) have been retired from state sector of Karnataka; 
-Unit-1 to 4 (4 x 50=200 MW) of KORBA-II TPP have been retired from state sector of Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Total MW</t>
-  </si>
-  <si>
-    <t>Unit-6 (500 MW) of TROMBAY TPS has been retired from private sector of Maharashtra;
-Unit-15 &amp; 16 (2 x 30=60 MW) of SABARMATI (C STATION) TPP have been retired from private sector of Gujarat;
-Unit-1 &amp; 2 (2 x 67.5=135 MW) of RAJGHAT TPS have been retired from state sector of Delhi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- LINEAR TRENDLINE TOTAL for 2019 </t>
-  </si>
-  <si>
-    <t>Below calculations are only for comparison of Planned vs. Actual (Trend-based) for 2019. Estimated value for 2019 is used based on trendline for the year till September, for which actual data is available</t>
-  </si>
-  <si>
-    <t>2019 provisional retirements (from CEA monthly installed cap reports till Sep'19, remaining based on linear trend)</t>
-  </si>
-  <si>
-    <t>Oct-Dec as per linear trendline (accounted under coal)</t>
-  </si>
-  <si>
-    <t>TOTAL 
-(by type)</t>
-  </si>
-  <si>
     <t>BAU Capacity Retirements (MW)</t>
   </si>
   <si>
@@ -12261,10 +12156,46 @@
     <t>the model run would retire accordingly.</t>
   </si>
   <si>
-    <t xml:space="preserve">The total coal and lignite capacity retirements for existing plants as provided by CEA across 2017-22 as well as 2022-27 are divided into the five years equally. </t>
-  </si>
-  <si>
     <t>no further retirement plans available. It is assumed that the plants with their generation lifetime expiring within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total coal and lignite capacity retirements for existing plants as provided by CEA across 2017-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and 2022-27 are divided into the five years equally. </t>
+  </si>
+  <si>
+    <t>Lignite retirements from CEA Montly archives (Installed capacity reports) (Jan '17 to Dec '19)</t>
+  </si>
+  <si>
+    <t>(Actual) Reported monthly retirements [Jun '19 to Dec '19]</t>
+  </si>
+  <si>
+    <t>Jun '19 to Dec '19</t>
+  </si>
+  <si>
+    <t>2. Lignite retirements from CEA Montly archives (Installed capacity reports) (Jan '17 to Dec '19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The actual retirements for 2016-19 are used in the 2017-22 period. </t>
+  </si>
+  <si>
+    <t>Extra retirement is reflected between the installed capacity figures of 2018 &amp; 2017, as compared to plant-wise data collected here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could possibly be stranded capacity that is not retired, but we account for it to match with the installed operational </t>
+  </si>
+  <si>
+    <t>capacity reported for 2018 by CEA.</t>
+  </si>
+  <si>
+    <t>Gas Capacity (MW)</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/installedcapacity/2017/installed_capacity-12.pdf</t>
+  </si>
+  <si>
+    <t>**Note on Gas-based capacity:</t>
   </si>
 </sst>
 </file>
@@ -12275,7 +12206,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12400,8 +12331,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12414,14 +12354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -12885,15 +12819,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12936,7 +12861,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13016,9 +12941,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13105,19 +13027,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -13257,890 +13178,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>2019 actual</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> retirements</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculation!$R$25:$R$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>327.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>695</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAB7-4552-B595-4FF16CC80DA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1490996352"/>
-        <c:axId val="1596042480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1490996352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1596042480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1596042480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1490996352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -14153,7 +13190,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14192,43 +13229,13 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>732233</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>539353</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2351483</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>115490</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C0780F-463C-467F-9144-F70F7D40529E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Deepthi Swamy" id="{7731DCA2-5416-4228-B1AF-74616EE14B32}" userId="0118328b9c39827d" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14492,12 +13499,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2020-06-24T12:29:03.40" personId="{7731DCA2-5416-4228-B1AF-74616EE14B32}" id="{515DFB33-5F08-4F59-808E-9A3C7844F017}">
+    <text>actual values</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2020-06-25T11:41:48.29" personId="{7731DCA2-5416-4228-B1AF-74616EE14B32}" id="{CB300649-A9A3-4153-9731-46ACBBB398F7}">
+    <text>** See note below</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14521,7 +13539,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14546,7 +13564,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14566,7 +13584,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14576,7 +13594,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -14586,7 +13604,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C19" s="19"/>
     </row>
@@ -14607,7 +13625,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -14617,27 +13635,27 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -14647,7 +13665,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -14657,67 +13675,72 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>435</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>436</v>
+      <c r="A43" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -14741,10 +13764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14882,8 +13905,8 @@
         <v>1989</v>
       </c>
       <c r="E2" s="1">
-        <f>O37</f>
-        <v>2545</v>
+        <f>'Thermal+Lignit - Mar 16to May19'!H6+'Jun 19to Dec19'!B10-'Jun 19to Dec19'!B5</f>
+        <v>1295</v>
       </c>
       <c r="F2" s="1">
         <f>22716/5-F13</f>
@@ -14918,24 +13941,19 @@
         <v>5114.3999999999996</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>5114.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>5114.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>5114.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="0"/>
-        <v>5114.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" si="0"/>
-        <v>5114.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" si="0"/>
@@ -15023,8 +14041,8 @@
         <v>194</v>
       </c>
       <c r="D3" s="6">
-        <f>'Gas-based_DG - Sep 15to May19'!B20</f>
-        <v>30</v>
+        <f>B42-B43</f>
+        <v>213.15999999999985</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -15895,7 +14913,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -15909,7 +14927,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="6">
-        <f>Q37</f>
+        <f>'Jun 19to Dec19'!B5</f>
         <v>127.92</v>
       </c>
       <c r="F11" s="6">
@@ -16130,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <f>P37</f>
+        <f>'Thermal+Lignit - Mar 16to May19'!D46</f>
         <v>100</v>
       </c>
       <c r="F13" s="6">
@@ -16142,7 +15160,8 @@
         <v>120</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <f>SUM('By 2022'!$I$17:$J$25)/5</f>
+        <v>120</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -16341,7 +15360,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
@@ -16353,11 +15372,11 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>2219</v>
+        <v>2402.16</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E14)</f>
-        <v>2772.92</v>
+        <v>1522.92</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -16365,442 +15384,324 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N18" t="s">
-        <v>425</v>
-      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N19" s="45">
-        <v>2019</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="S19" s="45" t="s">
-        <v>362</v>
-      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N20" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="O20" s="45">
-        <f>22716/5-120</f>
-        <v>4423.2</v>
-      </c>
-      <c r="P20" s="45">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45">
-        <f>SUM(O20:P20)</f>
-        <v>4543.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="N21" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="O21" s="37">
-        <f>SUM(O25:O33)</f>
-        <v>1195</v>
-      </c>
-      <c r="P21" s="45">
-        <f>SUM(P25:P33)</f>
-        <v>100</v>
-      </c>
-      <c r="Q21" s="45">
-        <f>SUM(Q25:Q33)</f>
-        <v>127.92</v>
-      </c>
-      <c r="R21" s="45">
-        <v>0</v>
-      </c>
-      <c r="S21" s="37">
-        <f>SUM(O21:R21)</f>
-        <v>1422.92</v>
-      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N21" s="41"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S22" s="81">
-        <f>R37</f>
-        <v>2772.92</v>
-      </c>
-      <c r="T22" t="s">
-        <v>424</v>
-      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="80"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N23" s="80" t="s">
-        <v>426</v>
-      </c>
+      <c r="N23" s="80"/>
       <c r="O23" s="80"/>
       <c r="P23" s="80"/>
       <c r="Q23" s="80"/>
       <c r="R23" s="80"/>
+      <c r="S23" s="54"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N24" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="O24" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="P24" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q24" s="80" t="s">
-        <v>420</v>
-      </c>
-      <c r="R24" s="80" t="s">
-        <v>422</v>
-      </c>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N25" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="O25" s="45">
-        <v>0</v>
-      </c>
-      <c r="P25" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="45">
-        <v>0</v>
-      </c>
-      <c r="R25" s="45">
-        <f>SUM(O25:Q25)</f>
-        <v>0</v>
-      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="O26" s="45">
-        <v>0</v>
-      </c>
-      <c r="P26" s="45">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="45">
-        <v>0</v>
-      </c>
-      <c r="R26" s="45">
-        <f t="shared" ref="R26:R36" si="2">SUM(O26:Q26)</f>
-        <v>100</v>
-      </c>
-      <c r="S26" t="s">
-        <v>417</v>
-      </c>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N27" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="O27" s="45">
-        <v>300</v>
-      </c>
-      <c r="P27" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="45">
-        <v>0</v>
-      </c>
-      <c r="R27" s="45">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="S27" t="s">
-        <v>416</v>
-      </c>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N28" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="O28" s="45">
-        <v>0</v>
-      </c>
-      <c r="P28" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="45">
-        <v>0</v>
-      </c>
-      <c r="R28" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N29" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="O29" s="45">
-        <v>0</v>
-      </c>
-      <c r="P29" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="45">
-        <v>0</v>
-      </c>
-      <c r="R29" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N30" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="O30" s="45">
-        <f>'Jun 19to Sep19'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="45">
-        <v>0</v>
-      </c>
-      <c r="R30" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N31" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="O31" s="45">
-        <f>'Jun 19to Sep19'!B4</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="45">
-        <v>0</v>
-      </c>
-      <c r="R31" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="N32" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="O32" s="45">
-        <f>'Jun 19to Sep19'!B6</f>
-        <v>200</v>
-      </c>
-      <c r="P32" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="45">
-        <f>'Jun 19to Sep19'!B5</f>
-        <v>127.92</v>
-      </c>
-      <c r="R32" s="45">
-        <f t="shared" si="2"/>
-        <v>327.92</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="N33" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="O33" s="82">
-        <f>SUM('Jun 19to Sep19'!B7:B9)</f>
-        <v>695</v>
-      </c>
-      <c r="P33" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="82">
-        <v>0</v>
-      </c>
-      <c r="R33" s="82">
-        <f t="shared" si="2"/>
-        <v>695</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>423</v>
-      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="41"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="41"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N34" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="O34" s="45">
-        <v>400</v>
-      </c>
-      <c r="P34" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="45">
-        <v>0</v>
-      </c>
-      <c r="R34" s="45">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="S34" s="86" t="s">
-        <v>427</v>
-      </c>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="84"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="O35" s="45">
-        <v>450</v>
-      </c>
-      <c r="P35" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="45">
-        <v>0</v>
-      </c>
-      <c r="R35" s="45">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="S35" s="86"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="84"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>405</v>
-      </c>
-      <c r="N36" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="O36" s="45">
-        <v>500</v>
-      </c>
-      <c r="P36" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="45">
-        <v>0</v>
-      </c>
-      <c r="R36" s="45">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="S36" s="86"/>
-    </row>
-    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="N37" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="O37" s="82">
-        <f>SUM(O25:O36)</f>
-        <v>2545</v>
-      </c>
-      <c r="P37" s="82">
-        <f>SUM(P25:P36)</f>
-        <v>100</v>
-      </c>
-      <c r="Q37" s="82">
-        <f>SUM(Q25:Q36)</f>
-        <v>127.92</v>
-      </c>
-      <c r="R37" s="82">
-        <f>SUM(O37:Q37)</f>
-        <v>2772.92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="84"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="81"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>421</v>
+      </c>
+      <c r="N38" s="41"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>422</v>
+      </c>
+      <c r="N39" s="41"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>423</v>
+      </c>
+      <c r="N40" s="41"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>424</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42">
+        <v>25150.38</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="N42" s="41"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>24937.22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N43" s="41"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+    </row>
+    <row r="44" spans="1:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A17:V17"/>
-    <mergeCell ref="A38:V38"/>
+    <mergeCell ref="A44:V44"/>
     <mergeCell ref="S34:S36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C35" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C42" r:id="rId2" xr:uid="{AA14197D-D423-44F2-A1C2-FC49909E905E}"/>
+    <hyperlink ref="C43" r:id="rId3" xr:uid="{0FEEB454-59AC-4426-91E6-5421D850315E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16814,7 +15715,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16830,7 +15731,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16838,7 +15739,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>25</v>
@@ -16847,16 +15748,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>360</v>
+      <c r="H2" s="43" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -16875,8 +15776,8 @@
       <c r="E3" s="20">
         <v>240</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>278</v>
+      <c r="F3" s="46" t="s">
+        <v>277</v>
       </c>
       <c r="G3" s="37">
         <v>2016</v>
@@ -16902,8 +15803,8 @@
       <c r="E4" s="20">
         <v>440</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>279</v>
+      <c r="F4" s="46" t="s">
+        <v>278</v>
       </c>
       <c r="G4" s="37">
         <v>2017</v>
@@ -16929,8 +15830,8 @@
       <c r="E5" s="20">
         <v>420</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>280</v>
+      <c r="F5" s="46" t="s">
+        <v>279</v>
       </c>
       <c r="G5" s="37">
         <v>2018</v>
@@ -16952,8 +15853,8 @@
       <c r="E6" s="20">
         <v>200</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>281</v>
+      <c r="F6" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="G6" s="37">
         <v>2019</v>
@@ -16971,7 +15872,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>36</v>
@@ -16979,8 +15880,8 @@
       <c r="E7" s="20">
         <v>420</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>283</v>
+      <c r="F7" s="46" t="s">
+        <v>282</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37">
@@ -17005,7 +15906,7 @@
         <v>210</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -17025,7 +15926,7 @@
         <v>210</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -17036,7 +15937,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>33</v>
@@ -17045,7 +15946,7 @@
         <v>480</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17056,7 +15957,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>30</v>
@@ -17065,7 +15966,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -17079,13 +15980,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="20">
         <v>360</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17093,13 +15994,13 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="20">
         <v>455</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -17110,23 +16011,23 @@
         <v>44</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="E14" s="20">
         <v>340</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" s="20">
         <v>5</v>
@@ -17135,7 +16036,7 @@
         <v>110</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17155,7 +16056,7 @@
         <v>240</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -17166,7 +16067,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>36</v>
@@ -17175,7 +16076,7 @@
         <v>240</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17186,7 +16087,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>36</v>
@@ -17195,7 +16096,7 @@
         <v>240</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17215,7 +16116,7 @@
         <v>220</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17235,7 +16136,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17246,16 +16147,16 @@
         <v>100</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="E21" s="20">
         <v>440</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17266,7 +16167,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>36</v>
@@ -17275,7 +16176,7 @@
         <v>420</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17295,7 +16196,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17315,14 +16216,14 @@
         <v>100</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" s="20">
         <v>8</v>
@@ -17331,7 +16232,7 @@
         <v>94</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17342,7 +16243,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>30</v>
@@ -17351,7 +16252,7 @@
         <v>210</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -17367,19 +16268,19 @@
         <v>21</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>311</v>
       </c>
       <c r="E28" s="20">
         <v>300</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -17390,7 +16291,7 @@
         <v>162</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>45</v>
@@ -17399,7 +16300,7 @@
         <v>705</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17419,7 +16320,7 @@
         <v>140</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17439,7 +16340,7 @@
         <v>130</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -17455,7 +16356,7 @@
         <v>130</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17475,7 +16376,7 @@
         <v>420</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17486,7 +16387,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D34" s="20">
         <v>7</v>
@@ -17495,7 +16396,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="79.5" x14ac:dyDescent="0.25">
@@ -17503,10 +16404,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>33</v>
@@ -17515,10 +16416,10 @@
         <v>160</v>
       </c>
       <c r="F35" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G35" s="53" t="s">
         <v>359</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -17526,19 +16427,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="E36" s="20">
         <v>30</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17547,16 +16448,16 @@
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37" s="20">
         <v>18</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -17565,16 +16466,16 @@
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E38" s="22">
         <v>8.3800000000000008</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17582,7 +16483,7 @@
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E39" s="31">
         <v>8470.3799999999992</v>
@@ -17590,8 +16491,8 @@
       <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="41" t="s">
-        <v>363</v>
+      <c r="D40" s="40" t="s">
+        <v>361</v>
       </c>
       <c r="E40" s="1">
         <f>E39-E35</f>
@@ -17599,13 +16500,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+      <c r="A41" s="66">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="41" t="s">
-        <v>400</v>
+      <c r="D42" s="40" t="s">
+        <v>396</v>
       </c>
       <c r="E42" s="1">
         <f>E40+'Gas-based_DG - Sep 15to May19'!E7</f>
@@ -17614,40 +16515,40 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>394</v>
+      <c r="D45" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="44">
         <v>1</v>
       </c>
-      <c r="B46" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="45">
+      <c r="B46" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="44">
         <v>7</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="44">
         <v>100</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="65">
         <v>43497</v>
       </c>
     </row>
@@ -17665,8 +16566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC56D6-B710-40F9-B856-C236F4BD135A}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17681,20 +16582,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="A1" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -17703,345 +16604,345 @@
       <c r="D2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>367</v>
+      <c r="I2" s="39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="93">
+      <c r="E3" s="91">
         <v>32</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="33">
         <v>2014</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>365</v>
+      <c r="H3" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>328</v>
+      <c r="B4" s="46" t="s">
+        <v>327</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="95">
+      <c r="E4" s="93">
         <v>42.64</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="33">
         <v>2014</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>365</v>
+      <c r="H4" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="93">
+      <c r="E5" s="91">
         <v>90</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="33">
         <v>2016</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="94">
+        <v>81.3</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="G6" s="77">
+        <v>2017</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I5" s="42" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>5</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="78">
+        <v>4</v>
+      </c>
+      <c r="E7" s="94">
+        <v>150</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="77">
+        <v>2017</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>6</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="96">
+        <v>144</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="G8" s="77">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>7</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="54">
+        <v>1</v>
+      </c>
+      <c r="E9" s="96">
+        <v>15</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="77">
+        <v>2017</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="96">
-        <v>81.3</v>
-      </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="78">
+      <c r="I9" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="76" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="96">
+        <v>30</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="77">
+        <v>2018</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="76">
+        <v>4</v>
+      </c>
+      <c r="E11" s="96">
+        <v>15</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="77">
         <v>2017</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H11" s="41" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
-        <v>5</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="79">
-        <v>4</v>
-      </c>
-      <c r="E7" s="96">
-        <v>150</v>
-      </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="78">
+      <c r="I11" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>8</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="78">
+        <v>1</v>
+      </c>
+      <c r="E12" s="96">
+        <v>20</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="77">
         <v>2017</v>
       </c>
-      <c r="H7" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="75">
-        <v>6</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="98">
-        <v>144</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="78">
-        <v>2017</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
-        <v>7</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-      <c r="E9" s="98">
-        <v>15</v>
-      </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="78">
-        <v>2017</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H12" s="41" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77" t="s">
+      <c r="I12" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="E10" s="98">
-        <v>30</v>
-      </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="78">
-        <v>2018</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="77">
-        <v>4</v>
-      </c>
-      <c r="E11" s="98">
-        <v>15</v>
-      </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="78">
-        <v>2017</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
-        <v>8</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="79">
-        <v>1</v>
-      </c>
-      <c r="E12" s="98">
-        <v>20</v>
-      </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="78">
-        <v>2017</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>344</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="97">
         <v>200</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="35">
         <v>2018</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>377</v>
+      <c r="H13" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="85">
         <f>SUM(E3:F13)</f>
         <v>819.94</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="86"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>399</v>
+      <c r="B16" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>395</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="68">
         <v>2014</v>
       </c>
-      <c r="B17" s="71">
-        <v>0</v>
-      </c>
-      <c r="C17" s="72">
+      <c r="B17" s="70">
+        <v>0</v>
+      </c>
+      <c r="C17" s="71">
         <f>E3+E4</f>
         <v>74.64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="68">
         <v>2016</v>
       </c>
       <c r="B18" s="25">
@@ -18053,36 +16954,36 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="68">
         <v>2017</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="72">
         <f>SUM(E8,E9,E11,E12)</f>
         <v>194</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <f>E6+E7</f>
         <v>231.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69">
+      <c r="A20" s="68">
         <v>2018</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="73">
         <f>E10</f>
         <v>30</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <f>E13</f>
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="68">
+        <v>360</v>
+      </c>
+      <c r="B21" s="67">
         <f>SUM(B17:C20)</f>
         <v>819.94</v>
       </c>
@@ -18124,7 +17025,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18134,111 +17035,111 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>395</v>
+        <v>354</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="57">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
+        <v>345</v>
+      </c>
+      <c r="B3" s="56">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="57">
-        <v>0</v>
-      </c>
-      <c r="C4" s="61"/>
+        <v>346</v>
+      </c>
+      <c r="B4" s="56">
+        <v>0</v>
+      </c>
+      <c r="C4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="57">
+        <v>347</v>
+      </c>
+      <c r="B5" s="56">
         <v>127.92</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>396</v>
+      <c r="C5" s="60" t="s">
+        <v>392</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>200</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>397</v>
+      <c r="C6" s="60" t="s">
+        <v>393</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="B7" s="57">
+        <v>348</v>
+      </c>
+      <c r="B7" s="56">
         <v>500</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>397</v>
+      <c r="C7" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>60</v>
       </c>
-      <c r="C8" s="62" t="s">
-        <v>397</v>
+      <c r="C8" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>135</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>397</v>
+      <c r="C9" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <f>SUM(B3:B9)</f>
         <v>1022.9200000000001</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18249,8 +17150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I62" sqref="I62:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18277,1510 +17178,1510 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="112" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="111" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="111" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="111"/>
+      <c r="L2" s="109"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="103">
+      <c r="A3" s="101">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="103">
+      <c r="F3" s="102"/>
+      <c r="G3" s="101">
         <v>3</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="105">
+      <c r="H3" s="101"/>
+      <c r="I3" s="103">
         <v>70</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="103">
+      <c r="A4" s="101">
         <v>2</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="103">
+      <c r="F4" s="102"/>
+      <c r="G4" s="101">
         <v>4</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="105">
+      <c r="H4" s="101"/>
+      <c r="I4" s="103">
         <v>75</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="103">
+      <c r="A5" s="101">
         <v>3</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="103">
+      <c r="F5" s="102"/>
+      <c r="G5" s="101">
         <v>5</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="105">
+      <c r="H5" s="101"/>
+      <c r="I5" s="103">
         <v>75</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="103">
+      <c r="A6" s="101">
         <v>4</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="103">
+      <c r="F6" s="102"/>
+      <c r="G6" s="101">
         <v>1</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="105">
+      <c r="H6" s="101"/>
+      <c r="I6" s="103">
         <v>30</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="103">
+      <c r="A7" s="101">
         <v>5</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103">
+      <c r="F7" s="102"/>
+      <c r="G7" s="101">
         <v>2</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="105">
+      <c r="H7" s="101"/>
+      <c r="I7" s="103">
         <v>30</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="103">
+      <c r="A8" s="101">
         <v>6</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104" t="s">
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="103">
+      <c r="F8" s="102"/>
+      <c r="G8" s="101">
         <v>1</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105">
+      <c r="H8" s="101"/>
+      <c r="I8" s="103">
         <v>120</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="103">
+      <c r="A9" s="101">
         <v>7</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="103">
+      <c r="F9" s="102"/>
+      <c r="G9" s="101">
         <v>1</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="105">
+      <c r="H9" s="101"/>
+      <c r="I9" s="103">
         <v>120</v>
       </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="103">
+      <c r="A10" s="101">
         <v>8</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="103">
+      <c r="F10" s="102"/>
+      <c r="G10" s="101">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="105">
+      <c r="H10" s="101"/>
+      <c r="I10" s="103">
         <v>120</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="103">
+      <c r="A11" s="101">
         <v>9</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="103">
+      <c r="F11" s="102"/>
+      <c r="G11" s="101">
         <v>1</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="105">
+      <c r="H11" s="101"/>
+      <c r="I11" s="103">
         <v>67.5</v>
       </c>
-      <c r="J11" s="105"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="103">
+      <c r="A12" s="101">
         <v>10</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104" t="s">
+      <c r="D12" s="102"/>
+      <c r="E12" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="103">
+      <c r="F12" s="102"/>
+      <c r="G12" s="101">
         <v>2</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="105">
+      <c r="H12" s="101"/>
+      <c r="I12" s="103">
         <v>67.5</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="103">
+      <c r="A13" s="101">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="103">
+      <c r="F13" s="102"/>
+      <c r="G13" s="101">
         <v>6</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="105">
+      <c r="H13" s="101"/>
+      <c r="I13" s="103">
         <v>200</v>
       </c>
-      <c r="J13" s="105"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="103">
+      <c r="A14" s="101">
         <v>12</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="103">
+      <c r="F14" s="102"/>
+      <c r="G14" s="101">
         <v>7</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="105">
+      <c r="H14" s="101"/>
+      <c r="I14" s="103">
         <v>210</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106" t="s">
+      <c r="D15" s="104"/>
+      <c r="E15" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="106" t="s">
+      <c r="J15" s="105"/>
+      <c r="K15" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="106"/>
+      <c r="L15" s="104"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="103">
+      <c r="A16" s="101">
         <v>14</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="103">
+      <c r="F16" s="102"/>
+      <c r="G16" s="101">
         <v>8</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="105">
+      <c r="H16" s="101"/>
+      <c r="I16" s="103">
         <v>94</v>
       </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106" t="s">
+      <c r="D17" s="104"/>
+      <c r="E17" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106" t="s">
+      <c r="F17" s="104"/>
+      <c r="G17" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="110">
+      <c r="H17" s="104"/>
+      <c r="I17" s="108">
         <v>50</v>
       </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108" t="s">
+      <c r="J17" s="105"/>
+      <c r="K17" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="108"/>
+      <c r="L17" s="106"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="103">
+      <c r="A18" s="101">
         <v>16</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103">
+      <c r="F18" s="102"/>
+      <c r="G18" s="101">
         <v>2</v>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="105">
+      <c r="H18" s="101"/>
+      <c r="I18" s="103">
         <v>50</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="103">
+      <c r="A19" s="101">
         <v>17</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="103">
+      <c r="F19" s="102"/>
+      <c r="G19" s="101">
         <v>3</v>
       </c>
-      <c r="H19" s="103"/>
-      <c r="I19" s="105">
+      <c r="H19" s="101"/>
+      <c r="I19" s="103">
         <v>50</v>
       </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="103">
+      <c r="A20" s="101">
         <v>18</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="103">
+      <c r="F20" s="102"/>
+      <c r="G20" s="101">
         <v>4</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="105">
+      <c r="H20" s="101"/>
+      <c r="I20" s="103">
         <v>50</v>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="103">
+      <c r="A21" s="101">
         <v>19</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="103">
+      <c r="F21" s="102"/>
+      <c r="G21" s="101">
         <v>5</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="105">
+      <c r="H21" s="101"/>
+      <c r="I21" s="103">
         <v>50</v>
       </c>
-      <c r="J21" s="105"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="103">
+      <c r="A22" s="101">
         <v>20</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="103">
+      <c r="F22" s="102"/>
+      <c r="G22" s="101">
         <v>6</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="105">
+      <c r="H22" s="101"/>
+      <c r="I22" s="103">
         <v>50</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="103">
+      <c r="A23" s="101">
         <v>21</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103" t="s">
+      <c r="B23" s="101"/>
+      <c r="C23" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="103">
+      <c r="F23" s="102"/>
+      <c r="G23" s="101">
         <v>7</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="105">
+      <c r="H23" s="101"/>
+      <c r="I23" s="103">
         <v>100</v>
       </c>
-      <c r="J23" s="105"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="103">
+      <c r="A24" s="101">
         <v>22</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103" t="s">
+      <c r="B24" s="101"/>
+      <c r="C24" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="103">
+      <c r="F24" s="102"/>
+      <c r="G24" s="101">
         <v>8</v>
       </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="105">
+      <c r="H24" s="101"/>
+      <c r="I24" s="103">
         <v>100</v>
       </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="103">
+      <c r="A25" s="101">
         <v>23</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103" t="s">
+      <c r="B25" s="101"/>
+      <c r="C25" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="103">
+      <c r="F25" s="102"/>
+      <c r="G25" s="101">
         <v>9</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="105">
+      <c r="H25" s="101"/>
+      <c r="I25" s="103">
         <v>100</v>
       </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106" t="s">
+      <c r="F26" s="104"/>
+      <c r="G26" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107" t="s">
+      <c r="H26" s="104"/>
+      <c r="I26" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108" t="s">
+      <c r="J26" s="105"/>
+      <c r="K26" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="106"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="103">
+      <c r="A27" s="101">
         <v>25</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104" t="s">
+      <c r="B27" s="101"/>
+      <c r="C27" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="104"/>
-      <c r="G27" s="103">
+      <c r="F27" s="102"/>
+      <c r="G27" s="101">
         <v>2</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="105">
+      <c r="H27" s="101"/>
+      <c r="I27" s="103">
         <v>60</v>
       </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="103">
+      <c r="A28" s="101">
         <v>26</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104" t="s">
+      <c r="B28" s="101"/>
+      <c r="C28" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="103">
+      <c r="F28" s="102"/>
+      <c r="G28" s="101">
         <v>3</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="105">
+      <c r="H28" s="101"/>
+      <c r="I28" s="103">
         <v>60</v>
       </c>
-      <c r="J28" s="105"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="103">
+      <c r="A29" s="101">
         <v>27</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="104" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="103">
+      <c r="F29" s="102"/>
+      <c r="G29" s="101">
         <v>4</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="105">
+      <c r="H29" s="101"/>
+      <c r="I29" s="103">
         <v>60</v>
       </c>
-      <c r="J29" s="105"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106" t="s">
+      <c r="D30" s="104"/>
+      <c r="E30" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106" t="s">
+      <c r="F30" s="104"/>
+      <c r="G30" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107" t="s">
+      <c r="H30" s="104"/>
+      <c r="I30" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108" t="s">
+      <c r="J30" s="105"/>
+      <c r="K30" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="108"/>
+      <c r="L30" s="106"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="103">
+      <c r="A31" s="101">
         <v>29</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="104" t="s">
+      <c r="B31" s="101"/>
+      <c r="C31" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104" t="s">
+      <c r="D31" s="102"/>
+      <c r="E31" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="103">
+      <c r="F31" s="102"/>
+      <c r="G31" s="101">
         <v>2</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="105">
+      <c r="H31" s="101"/>
+      <c r="I31" s="103">
         <v>110</v>
       </c>
-      <c r="J31" s="105"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="103">
+      <c r="A32" s="101">
         <v>30</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="104" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="103">
+      <c r="F32" s="102"/>
+      <c r="G32" s="101">
         <v>1</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="105">
+      <c r="H32" s="101"/>
+      <c r="I32" s="103">
         <v>50</v>
       </c>
-      <c r="J32" s="105"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="103">
+      <c r="A33" s="101">
         <v>31</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104" t="s">
+      <c r="D33" s="102"/>
+      <c r="E33" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="103">
+      <c r="F33" s="102"/>
+      <c r="G33" s="101">
         <v>2</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="105">
+      <c r="H33" s="101"/>
+      <c r="I33" s="103">
         <v>50</v>
       </c>
-      <c r="J33" s="105"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="103">
+      <c r="A34" s="101">
         <v>32</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104" t="s">
+      <c r="D34" s="102"/>
+      <c r="E34" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="103">
+      <c r="F34" s="102"/>
+      <c r="G34" s="101">
         <v>3</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="105">
+      <c r="H34" s="101"/>
+      <c r="I34" s="103">
         <v>50</v>
       </c>
-      <c r="J34" s="105"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="103">
+      <c r="A35" s="101">
         <v>33</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="103">
+      <c r="F35" s="102"/>
+      <c r="G35" s="101">
         <v>4</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="105">
+      <c r="H35" s="101"/>
+      <c r="I35" s="103">
         <v>50</v>
       </c>
-      <c r="J35" s="105"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="103">
+      <c r="A36" s="101">
         <v>34</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="103">
+      <c r="F36" s="102"/>
+      <c r="G36" s="101">
         <v>8</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="105">
+      <c r="H36" s="101"/>
+      <c r="I36" s="103">
         <v>210</v>
       </c>
-      <c r="J36" s="105"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="103">
+      <c r="A37" s="101">
         <v>35</v>
       </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104" t="s">
+      <c r="D37" s="102"/>
+      <c r="E37" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="103">
+      <c r="F37" s="102"/>
+      <c r="G37" s="101">
         <v>9</v>
       </c>
-      <c r="H37" s="103"/>
-      <c r="I37" s="105">
+      <c r="H37" s="101"/>
+      <c r="I37" s="103">
         <v>210</v>
       </c>
-      <c r="J37" s="105"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="103">
+      <c r="A38" s="101">
         <v>36</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104" t="s">
+      <c r="D38" s="102"/>
+      <c r="E38" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="103">
+      <c r="F38" s="102"/>
+      <c r="G38" s="101">
         <v>1</v>
       </c>
-      <c r="H38" s="103"/>
-      <c r="I38" s="105">
+      <c r="H38" s="101"/>
+      <c r="I38" s="103">
         <v>40</v>
       </c>
-      <c r="J38" s="105"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="103">
+      <c r="A39" s="101">
         <v>37</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="103">
+      <c r="F39" s="102"/>
+      <c r="G39" s="101">
         <v>2</v>
       </c>
-      <c r="H39" s="103"/>
-      <c r="I39" s="105">
+      <c r="H39" s="101"/>
+      <c r="I39" s="103">
         <v>50</v>
       </c>
-      <c r="J39" s="105"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106" t="s">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106" t="s">
+      <c r="D40" s="104"/>
+      <c r="E40" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106" t="s">
+      <c r="F40" s="104"/>
+      <c r="G40" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="106"/>
-      <c r="I40" s="107" t="s">
+      <c r="H40" s="104"/>
+      <c r="I40" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="107"/>
-      <c r="K40" s="108" t="s">
+      <c r="J40" s="105"/>
+      <c r="K40" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="L40" s="108"/>
+      <c r="L40" s="106"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="103">
+      <c r="A41" s="101">
         <v>39</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="104" t="s">
+      <c r="B41" s="101"/>
+      <c r="C41" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104" t="s">
+      <c r="D41" s="102"/>
+      <c r="E41" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="103">
+      <c r="F41" s="102"/>
+      <c r="G41" s="101">
         <v>4</v>
       </c>
-      <c r="H41" s="103"/>
-      <c r="I41" s="105">
+      <c r="H41" s="101"/>
+      <c r="I41" s="103">
         <v>105</v>
       </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="109"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="107"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106" t="s">
+      <c r="B42" s="104"/>
+      <c r="C42" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106" t="s">
+      <c r="D42" s="104"/>
+      <c r="E42" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106" t="s">
+      <c r="F42" s="104"/>
+      <c r="G42" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="106"/>
-      <c r="I42" s="107" t="s">
+      <c r="H42" s="104"/>
+      <c r="I42" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108" t="s">
+      <c r="J42" s="105"/>
+      <c r="K42" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="L42" s="108"/>
-      <c r="M42" s="109"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="107"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="103">
+      <c r="A43" s="101">
         <v>41</v>
       </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104" t="s">
+      <c r="D43" s="102"/>
+      <c r="E43" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="103">
+      <c r="F43" s="102"/>
+      <c r="G43" s="101">
         <v>6</v>
       </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="105">
+      <c r="H43" s="101"/>
+      <c r="I43" s="103">
         <v>120</v>
       </c>
-      <c r="J43" s="105"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="109"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="107"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="103">
+      <c r="A44" s="101">
         <v>42</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104" t="s">
+      <c r="B44" s="101"/>
+      <c r="C44" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104" t="s">
+      <c r="D44" s="102"/>
+      <c r="E44" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="103">
+      <c r="F44" s="102"/>
+      <c r="G44" s="101">
         <v>7</v>
       </c>
-      <c r="H44" s="103"/>
-      <c r="I44" s="105">
+      <c r="H44" s="101"/>
+      <c r="I44" s="103">
         <v>120</v>
       </c>
-      <c r="J44" s="105"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="109"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="107"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="103">
+      <c r="A45" s="101">
         <v>43</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104" t="s">
+      <c r="B45" s="101"/>
+      <c r="C45" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104" t="s">
+      <c r="D45" s="102"/>
+      <c r="E45" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="103">
+      <c r="F45" s="102"/>
+      <c r="G45" s="101">
         <v>8</v>
       </c>
-      <c r="H45" s="103"/>
-      <c r="I45" s="105">
+      <c r="H45" s="101"/>
+      <c r="I45" s="103">
         <v>120</v>
       </c>
-      <c r="J45" s="105"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="109"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="107"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="103">
+      <c r="A46" s="101">
         <v>44</v>
       </c>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104" t="s">
+      <c r="B46" s="101"/>
+      <c r="C46" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104" t="s">
+      <c r="D46" s="102"/>
+      <c r="E46" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="104"/>
-      <c r="G46" s="103">
+      <c r="F46" s="102"/>
+      <c r="G46" s="101">
         <v>1</v>
       </c>
-      <c r="H46" s="103"/>
-      <c r="I46" s="105">
+      <c r="H46" s="101"/>
+      <c r="I46" s="103">
         <v>62.5</v>
       </c>
-      <c r="J46" s="105"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="109"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="107"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106" t="s">
+      <c r="D47" s="104"/>
+      <c r="E47" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106" t="s">
+      <c r="F47" s="104"/>
+      <c r="G47" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="107" t="s">
+      <c r="H47" s="104"/>
+      <c r="I47" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="J47" s="107"/>
-      <c r="K47" s="108" t="s">
+      <c r="J47" s="105"/>
+      <c r="K47" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="L47" s="108"/>
-      <c r="M47" s="109"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="107"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="103">
+      <c r="A48" s="101">
         <v>46</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104" t="s">
+      <c r="D48" s="102"/>
+      <c r="E48" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="104"/>
-      <c r="G48" s="103">
+      <c r="F48" s="102"/>
+      <c r="G48" s="101">
         <v>2</v>
       </c>
-      <c r="H48" s="103"/>
-      <c r="I48" s="105">
+      <c r="H48" s="101"/>
+      <c r="I48" s="103">
         <v>210</v>
       </c>
-      <c r="J48" s="105"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="109"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="107"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="103">
+      <c r="A49" s="101">
         <v>47</v>
       </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104" t="s">
+      <c r="B49" s="101"/>
+      <c r="C49" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="104"/>
-      <c r="G49" s="103">
+      <c r="F49" s="102"/>
+      <c r="G49" s="101">
         <v>3</v>
       </c>
-      <c r="H49" s="103"/>
-      <c r="I49" s="105">
+      <c r="H49" s="101"/>
+      <c r="I49" s="103">
         <v>210</v>
       </c>
-      <c r="J49" s="105"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="109"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="107"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="103">
+      <c r="A50" s="101">
         <v>48</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104" t="s">
+      <c r="B50" s="101"/>
+      <c r="C50" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104" t="s">
+      <c r="D50" s="102"/>
+      <c r="E50" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="104"/>
-      <c r="G50" s="103">
+      <c r="F50" s="102"/>
+      <c r="G50" s="101">
         <v>4</v>
       </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="105">
+      <c r="H50" s="101"/>
+      <c r="I50" s="103">
         <v>210</v>
       </c>
-      <c r="J50" s="105"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="109"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="107"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106" t="s">
+      <c r="B51" s="104"/>
+      <c r="C51" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106" t="s">
+      <c r="D51" s="104"/>
+      <c r="E51" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106" t="s">
+      <c r="F51" s="104"/>
+      <c r="G51" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="106"/>
-      <c r="I51" s="107" t="s">
+      <c r="H51" s="104"/>
+      <c r="I51" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="J51" s="107"/>
-      <c r="K51" s="106" t="s">
+      <c r="J51" s="105"/>
+      <c r="K51" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="106"/>
-      <c r="M51" s="109"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="107"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106" t="s">
+      <c r="B52" s="104"/>
+      <c r="C52" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106" t="s">
+      <c r="D52" s="104"/>
+      <c r="E52" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106" t="s">
+      <c r="F52" s="104"/>
+      <c r="G52" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="106"/>
-      <c r="I52" s="107" t="s">
+      <c r="H52" s="104"/>
+      <c r="I52" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="J52" s="107"/>
-      <c r="K52" s="106" t="s">
+      <c r="J52" s="105"/>
+      <c r="K52" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="106"/>
-      <c r="M52" s="109"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="107"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="103">
+      <c r="A53" s="101">
         <v>51</v>
       </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104" t="s">
+      <c r="B53" s="101"/>
+      <c r="C53" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104" t="s">
+      <c r="D53" s="102"/>
+      <c r="E53" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="104"/>
-      <c r="G53" s="103">
+      <c r="F53" s="102"/>
+      <c r="G53" s="101">
         <v>6</v>
       </c>
-      <c r="H53" s="103"/>
-      <c r="I53" s="105">
+      <c r="H53" s="101"/>
+      <c r="I53" s="103">
         <v>100</v>
       </c>
-      <c r="J53" s="105"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="109"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="107"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="103">
+      <c r="A54" s="101">
         <v>52</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104" t="s">
+      <c r="B54" s="101"/>
+      <c r="C54" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104" t="s">
+      <c r="D54" s="102"/>
+      <c r="E54" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="104"/>
-      <c r="G54" s="103">
+      <c r="F54" s="102"/>
+      <c r="G54" s="101">
         <v>9</v>
       </c>
-      <c r="H54" s="103"/>
-      <c r="I54" s="105">
+      <c r="H54" s="101"/>
+      <c r="I54" s="103">
         <v>110</v>
       </c>
-      <c r="J54" s="105"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="109"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="107"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="103">
+      <c r="A55" s="101">
         <v>53</v>
       </c>
-      <c r="B55" s="103"/>
-      <c r="C55" s="104" t="s">
+      <c r="B55" s="101"/>
+      <c r="C55" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104" t="s">
+      <c r="D55" s="102"/>
+      <c r="E55" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="104"/>
-      <c r="G55" s="103">
+      <c r="F55" s="102"/>
+      <c r="G55" s="101">
         <v>10</v>
       </c>
-      <c r="H55" s="103"/>
-      <c r="I55" s="105">
+      <c r="H55" s="101"/>
+      <c r="I55" s="103">
         <v>110</v>
       </c>
-      <c r="J55" s="105"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="109"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="107"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106" t="s">
+      <c r="B56" s="104"/>
+      <c r="C56" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106" t="s">
+      <c r="D56" s="104"/>
+      <c r="E56" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106" t="s">
+      <c r="F56" s="104"/>
+      <c r="G56" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="106"/>
-      <c r="I56" s="107" t="s">
+      <c r="H56" s="104"/>
+      <c r="I56" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108" t="s">
+      <c r="J56" s="105"/>
+      <c r="K56" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="109"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="107"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106" t="s">
+      <c r="B57" s="104"/>
+      <c r="C57" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106" t="s">
+      <c r="D57" s="104"/>
+      <c r="E57" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106" t="s">
+      <c r="F57" s="104"/>
+      <c r="G57" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="106"/>
-      <c r="I57" s="107" t="s">
+      <c r="H57" s="104"/>
+      <c r="I57" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108" t="s">
+      <c r="J57" s="105"/>
+      <c r="K57" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="108"/>
-      <c r="M57" s="109"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="107"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="103">
+      <c r="A58" s="101">
         <v>56</v>
       </c>
-      <c r="B58" s="103"/>
-      <c r="C58" s="104" t="s">
+      <c r="B58" s="101"/>
+      <c r="C58" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104" t="s">
+      <c r="D58" s="102"/>
+      <c r="E58" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="103">
+      <c r="F58" s="102"/>
+      <c r="G58" s="101">
         <v>2</v>
       </c>
-      <c r="H58" s="103"/>
-      <c r="I58" s="105">
+      <c r="H58" s="101"/>
+      <c r="I58" s="103">
         <v>95</v>
       </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="109"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="107"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="103">
+      <c r="A59" s="101">
         <v>57</v>
       </c>
-      <c r="B59" s="103"/>
-      <c r="C59" s="104" t="s">
+      <c r="B59" s="101"/>
+      <c r="C59" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104" t="s">
+      <c r="D59" s="102"/>
+      <c r="E59" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="104"/>
-      <c r="G59" s="103">
+      <c r="F59" s="102"/>
+      <c r="G59" s="101">
         <v>3</v>
       </c>
-      <c r="H59" s="103"/>
-      <c r="I59" s="105">
+      <c r="H59" s="101"/>
+      <c r="I59" s="103">
         <v>95</v>
       </c>
-      <c r="J59" s="105"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="109"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="107"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106" t="s">
+      <c r="D60" s="104"/>
+      <c r="E60" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106" t="s">
+      <c r="F60" s="104"/>
+      <c r="G60" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="H60" s="106"/>
-      <c r="I60" s="107" t="s">
+      <c r="H60" s="104"/>
+      <c r="I60" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="107"/>
-      <c r="K60" s="108" t="s">
+      <c r="J60" s="105"/>
+      <c r="K60" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="L60" s="108"/>
-      <c r="M60" s="109"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="107"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="103">
+      <c r="A61" s="101">
         <v>59</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103" t="s">
+      <c r="B61" s="101"/>
+      <c r="C61" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="104" t="s">
+      <c r="D61" s="101"/>
+      <c r="E61" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="104"/>
-      <c r="G61" s="103">
+      <c r="F61" s="102"/>
+      <c r="G61" s="101">
         <v>3</v>
       </c>
-      <c r="H61" s="103"/>
-      <c r="I61" s="105">
+      <c r="H61" s="101"/>
+      <c r="I61" s="103">
         <v>130</v>
       </c>
-      <c r="J61" s="105"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="109"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="107"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="102" t="s">
+      <c r="A62" s="99"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="102" t="s">
+      <c r="D62" s="100"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="J62" s="102"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="109"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="367">
@@ -20165,7 +19066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -20201,10 +19102,10 @@
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="9" t="s">
         <v>151</v>
       </c>
@@ -20228,10 +19129,10 @@
       <c r="A5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="12" t="s">
         <v>158</v>
       </c>
@@ -20255,10 +19156,10 @@
       <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="12" t="s">
         <v>158</v>
       </c>
@@ -20282,10 +19183,10 @@
       <c r="A7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="12" t="s">
         <v>158</v>
       </c>
@@ -20309,10 +19210,10 @@
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="12" t="s">
         <v>158</v>
       </c>
@@ -20336,10 +19237,10 @@
       <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="14" t="s">
         <v>163</v>
       </c>
@@ -20363,10 +19264,10 @@
       <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="14" t="s">
         <v>163</v>
       </c>
@@ -20390,10 +19291,10 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="14" t="s">
         <v>167</v>
       </c>
@@ -20417,10 +19318,10 @@
       <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="115"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="14" t="s">
         <v>167</v>
       </c>
@@ -20444,10 +19345,10 @@
       <c r="A13" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="122"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="12" t="s">
         <v>170</v>
       </c>
@@ -20471,10 +19372,10 @@
       <c r="A14" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="12" t="s">
         <v>175</v>
       </c>
@@ -20498,10 +19399,10 @@
       <c r="A15" s="14">
         <v>11</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="14" t="s">
         <v>177</v>
       </c>
@@ -20525,10 +19426,10 @@
       <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="14" t="s">
         <v>180</v>
       </c>
@@ -20552,10 +19453,10 @@
       <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="115"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="14" t="s">
         <v>180</v>
       </c>
@@ -20579,10 +19480,10 @@
       <c r="A18" s="14">
         <v>14</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="14" t="s">
         <v>181</v>
       </c>
@@ -20606,10 +19507,10 @@
       <c r="A19" s="14">
         <v>15</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="115"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="14" t="s">
         <v>181</v>
       </c>
@@ -20633,10 +19534,10 @@
       <c r="A20" s="14">
         <v>16</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="14" t="s">
         <v>181</v>
       </c>
@@ -20660,10 +19561,10 @@
       <c r="A21" s="14">
         <v>17</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="115"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="14" t="s">
         <v>181</v>
       </c>
@@ -20687,10 +19588,10 @@
       <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="115"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="14" t="s">
         <v>181</v>
       </c>
@@ -20714,10 +19615,10 @@
       <c r="A23" s="14">
         <v>19</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="14" t="s">
         <v>183</v>
       </c>
@@ -20741,10 +19642,10 @@
       <c r="A24" s="14">
         <v>20</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="115"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="14" t="s">
         <v>183</v>
       </c>
@@ -20768,10 +19669,10 @@
       <c r="A25" s="14">
         <v>21</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="115"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="14" t="s">
         <v>183</v>
       </c>
@@ -20795,10 +19696,10 @@
       <c r="A26" s="14">
         <v>22</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="115"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="14" t="s">
         <v>183</v>
       </c>
@@ -20822,10 +19723,10 @@
       <c r="A27" s="14">
         <v>23</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="115"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="14" t="s">
         <v>183</v>
       </c>
@@ -20849,10 +19750,10 @@
       <c r="A28" s="14">
         <v>24</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="14" t="s">
         <v>183</v>
       </c>
@@ -20876,10 +19777,10 @@
       <c r="A29" s="14">
         <v>25</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="115"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="14" t="s">
         <v>184</v>
       </c>
@@ -20903,10 +19804,10 @@
       <c r="A30" s="14">
         <v>26</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="115"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="14" t="s">
         <v>184</v>
       </c>
@@ -20930,10 +19831,10 @@
       <c r="A31" s="14">
         <v>27</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="115"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="14" t="s">
         <v>184</v>
       </c>
@@ -20957,10 +19858,10 @@
       <c r="A32" s="14">
         <v>28</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="115"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="14" t="s">
         <v>184</v>
       </c>
@@ -20984,10 +19885,10 @@
       <c r="A33" s="14">
         <v>29</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="14" t="s">
         <v>187</v>
       </c>
@@ -21011,10 +19912,10 @@
       <c r="A34" s="14">
         <v>30</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="115"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="14" t="s">
         <v>187</v>
       </c>
@@ -21038,10 +19939,10 @@
       <c r="A35" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="12" t="s">
         <v>189</v>
       </c>
@@ -21068,10 +19969,10 @@
       <c r="B36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="120"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="15" t="s">
         <v>159</v>
       </c>
@@ -21095,10 +19996,10 @@
       <c r="B37" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="120"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="11" t="s">
         <v>159</v>
       </c>
@@ -21122,10 +20023,10 @@
       <c r="B38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="120"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="11" t="s">
         <v>159</v>
       </c>
@@ -21149,10 +20050,10 @@
       <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="120"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="11" t="s">
         <v>159</v>
       </c>
@@ -21176,10 +20077,10 @@
       <c r="B40" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="120"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="11" t="s">
         <v>159</v>
       </c>
@@ -21203,10 +20104,10 @@
       <c r="B41" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="120"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="11" t="s">
         <v>159</v>
       </c>
@@ -21230,10 +20131,10 @@
       <c r="B42" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="115"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="13" t="s">
         <v>8</v>
       </c>
@@ -21257,10 +20158,10 @@
       <c r="B43" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="115"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="13" t="s">
         <v>8</v>
       </c>
@@ -21284,10 +20185,10 @@
       <c r="B44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="115"/>
+      <c r="D44" s="113"/>
       <c r="E44" s="13" t="s">
         <v>7</v>
       </c>
@@ -21311,10 +20212,10 @@
       <c r="B45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="115"/>
+      <c r="D45" s="113"/>
       <c r="E45" s="13" t="s">
         <v>7</v>
       </c>
@@ -21338,10 +20239,10 @@
       <c r="B46" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="115"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="13" t="s">
         <v>7</v>
       </c>
@@ -21365,10 +20266,10 @@
       <c r="B47" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="115"/>
+      <c r="D47" s="113"/>
       <c r="E47" s="13" t="s">
         <v>7</v>
       </c>
@@ -21392,10 +20293,10 @@
       <c r="B48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="115"/>
+      <c r="D48" s="113"/>
       <c r="E48" s="13" t="s">
         <v>7</v>
       </c>
@@ -21419,10 +20320,10 @@
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="115"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="13" t="s">
         <v>7</v>
       </c>
@@ -21446,10 +20347,10 @@
       <c r="B50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="115"/>
+      <c r="D50" s="113"/>
       <c r="E50" s="13" t="s">
         <v>7</v>
       </c>
@@ -21473,10 +20374,10 @@
       <c r="B51" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="115"/>
+      <c r="D51" s="113"/>
       <c r="E51" s="13" t="s">
         <v>7</v>
       </c>
@@ -21500,10 +20401,10 @@
       <c r="B52" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="114" t="s">
+      <c r="C52" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="115"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="13" t="s">
         <v>7</v>
       </c>
@@ -21527,10 +20428,10 @@
       <c r="B53" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="115"/>
+      <c r="D53" s="113"/>
       <c r="E53" s="13" t="s">
         <v>7</v>
       </c>
@@ -21554,10 +20455,10 @@
       <c r="B54" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="120"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="11" t="s">
         <v>205</v>
       </c>
@@ -21581,10 +20482,10 @@
       <c r="B55" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="120"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="11" t="s">
         <v>205</v>
       </c>
@@ -21608,10 +20509,10 @@
       <c r="B56" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="115"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="11" t="s">
         <v>159</v>
       </c>
@@ -21635,10 +20536,10 @@
       <c r="B57" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="114" t="s">
+      <c r="C57" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D57" s="115"/>
+      <c r="D57" s="113"/>
       <c r="E57" s="11" t="s">
         <v>159</v>
       </c>
@@ -21662,10 +20563,10 @@
       <c r="B58" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="115"/>
+      <c r="D58" s="113"/>
       <c r="E58" s="11" t="s">
         <v>159</v>
       </c>
@@ -21689,10 +20590,10 @@
       <c r="B59" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="115"/>
+      <c r="D59" s="113"/>
       <c r="E59" s="11" t="s">
         <v>159</v>
       </c>
@@ -21716,10 +20617,10 @@
       <c r="B60" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D60" s="115"/>
+      <c r="D60" s="113"/>
       <c r="E60" s="11" t="s">
         <v>159</v>
       </c>
@@ -21743,10 +20644,10 @@
       <c r="B61" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="115"/>
+      <c r="D61" s="113"/>
       <c r="E61" s="11" t="s">
         <v>159</v>
       </c>
@@ -21770,10 +20671,10 @@
       <c r="B62" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="115"/>
+      <c r="D62" s="113"/>
       <c r="E62" s="13" t="s">
         <v>8</v>
       </c>
@@ -21797,10 +20698,10 @@
       <c r="B63" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D63" s="115"/>
+      <c r="D63" s="113"/>
       <c r="E63" s="13" t="s">
         <v>8</v>
       </c>
@@ -21824,10 +20725,10 @@
       <c r="B64" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="114" t="s">
+      <c r="C64" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D64" s="115"/>
+      <c r="D64" s="113"/>
       <c r="E64" s="13" t="s">
         <v>8</v>
       </c>
@@ -21851,10 +20752,10 @@
       <c r="B65" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="114" t="s">
+      <c r="C65" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D65" s="115"/>
+      <c r="D65" s="113"/>
       <c r="E65" s="13" t="s">
         <v>8</v>
       </c>
@@ -21878,10 +20779,10 @@
       <c r="B66" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="115"/>
+      <c r="D66" s="113"/>
       <c r="E66" s="13" t="s">
         <v>8</v>
       </c>
@@ -21905,10 +20806,10 @@
       <c r="B67" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="115"/>
+      <c r="D67" s="113"/>
       <c r="E67" s="13" t="s">
         <v>8</v>
       </c>
@@ -21932,10 +20833,10 @@
       <c r="B68" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="114" t="s">
+      <c r="C68" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="115"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="11" t="s">
         <v>205</v>
       </c>
@@ -21959,10 +20860,10 @@
       <c r="B69" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="114" t="s">
+      <c r="C69" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="115"/>
+      <c r="D69" s="113"/>
       <c r="E69" s="15" t="s">
         <v>205</v>
       </c>
@@ -21986,10 +20887,10 @@
       <c r="B70" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="115"/>
+      <c r="D70" s="113"/>
       <c r="E70" s="13" t="s">
         <v>7</v>
       </c>
@@ -22013,10 +20914,10 @@
       <c r="B71" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="115"/>
+      <c r="D71" s="113"/>
       <c r="E71" s="13" t="s">
         <v>7</v>
       </c>
@@ -22040,10 +20941,10 @@
       <c r="B72" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="114" t="s">
+      <c r="C72" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="D72" s="115"/>
+      <c r="D72" s="113"/>
       <c r="E72" s="13" t="s">
         <v>7</v>
       </c>
@@ -22067,10 +20968,10 @@
       <c r="B73" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="115"/>
+      <c r="D73" s="113"/>
       <c r="E73" s="13" t="s">
         <v>7</v>
       </c>
@@ -22094,10 +20995,10 @@
       <c r="B74" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="114" t="s">
+      <c r="C74" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="115"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="13" t="s">
         <v>7</v>
       </c>
@@ -22121,10 +21022,10 @@
       <c r="B75" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="114" t="s">
+      <c r="C75" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="115"/>
+      <c r="D75" s="113"/>
       <c r="E75" s="13" t="s">
         <v>7</v>
       </c>
@@ -22148,10 +21049,10 @@
       <c r="B76" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="119" t="s">
+      <c r="C76" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="120"/>
+      <c r="D76" s="118"/>
       <c r="E76" s="11" t="s">
         <v>205</v>
       </c>
@@ -22175,10 +21076,10 @@
       <c r="B77" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="119" t="s">
+      <c r="C77" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="120"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="11" t="s">
         <v>205</v>
       </c>
@@ -22202,10 +21103,10 @@
       <c r="B78" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="119" t="s">
+      <c r="C78" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D78" s="120"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="11" t="s">
         <v>205</v>
       </c>
@@ -22229,10 +21130,10 @@
       <c r="B79" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="120"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="11" t="s">
         <v>205</v>
       </c>
@@ -22256,10 +21157,10 @@
       <c r="B80" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C80" s="119" t="s">
+      <c r="C80" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="120"/>
+      <c r="D80" s="118"/>
       <c r="E80" s="11" t="s">
         <v>205</v>
       </c>
@@ -22283,10 +21184,10 @@
       <c r="B81" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="119" t="s">
+      <c r="C81" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="D81" s="120"/>
+      <c r="D81" s="118"/>
       <c r="E81" s="11" t="s">
         <v>205</v>
       </c>
@@ -22310,10 +21211,10 @@
       <c r="B82" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="114" t="s">
+      <c r="C82" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="115"/>
+      <c r="D82" s="113"/>
       <c r="E82" s="13" t="s">
         <v>235</v>
       </c>
@@ -22337,10 +21238,10 @@
       <c r="B83" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="114" t="s">
+      <c r="C83" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="D83" s="115"/>
+      <c r="D83" s="113"/>
       <c r="E83" s="13" t="s">
         <v>235</v>
       </c>
@@ -22364,10 +21265,10 @@
       <c r="B84" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C84" s="114" t="s">
+      <c r="C84" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="115"/>
+      <c r="D84" s="113"/>
       <c r="E84" s="13" t="s">
         <v>235</v>
       </c>
@@ -22391,10 +21292,10 @@
       <c r="B85" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="114" t="s">
+      <c r="C85" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="115"/>
+      <c r="D85" s="113"/>
       <c r="E85" s="11" t="s">
         <v>205</v>
       </c>
@@ -22418,10 +21319,10 @@
       <c r="B86" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D86" s="115"/>
+      <c r="D86" s="113"/>
       <c r="E86" s="11" t="s">
         <v>205</v>
       </c>
@@ -22445,10 +21346,10 @@
       <c r="B87" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="114" t="s">
+      <c r="C87" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="115"/>
+      <c r="D87" s="113"/>
       <c r="E87" s="11" t="s">
         <v>159</v>
       </c>
@@ -22472,10 +21373,10 @@
       <c r="B88" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="114" t="s">
+      <c r="C88" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D88" s="115"/>
+      <c r="D88" s="113"/>
       <c r="E88" s="11" t="s">
         <v>159</v>
       </c>
@@ -22499,10 +21400,10 @@
       <c r="B89" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="115"/>
+      <c r="D89" s="113"/>
       <c r="E89" s="11" t="s">
         <v>159</v>
       </c>
@@ -22526,10 +21427,10 @@
       <c r="B90" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="115"/>
+      <c r="D90" s="113"/>
       <c r="E90" s="11" t="s">
         <v>159</v>
       </c>
@@ -22553,10 +21454,10 @@
       <c r="B91" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="114" t="s">
+      <c r="C91" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="115"/>
+      <c r="D91" s="113"/>
       <c r="E91" s="11" t="s">
         <v>159</v>
       </c>
@@ -22580,10 +21481,10 @@
       <c r="B92" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="115"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="11" t="s">
         <v>159</v>
       </c>
@@ -22607,10 +21508,10 @@
       <c r="B93" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="114" t="s">
+      <c r="C93" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="D93" s="115"/>
+      <c r="D93" s="113"/>
       <c r="E93" s="13" t="s">
         <v>7</v>
       </c>
@@ -22634,10 +21535,10 @@
       <c r="B94" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="D94" s="115"/>
+      <c r="D94" s="113"/>
       <c r="E94" s="13" t="s">
         <v>7</v>
       </c>
@@ -22661,10 +21562,10 @@
       <c r="B95" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C95" s="114" t="s">
+      <c r="C95" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="115"/>
+      <c r="D95" s="113"/>
       <c r="E95" s="11" t="s">
         <v>205</v>
       </c>
@@ -22688,10 +21589,10 @@
       <c r="B96" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D96" s="115"/>
+      <c r="D96" s="113"/>
       <c r="E96" s="11" t="s">
         <v>205</v>
       </c>
@@ -22715,10 +21616,10 @@
       <c r="B97" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C97" s="114" t="s">
+      <c r="C97" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D97" s="115"/>
+      <c r="D97" s="113"/>
       <c r="E97" s="11" t="s">
         <v>205</v>
       </c>
@@ -22742,10 +21643,10 @@
       <c r="B98" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D98" s="115"/>
+      <c r="D98" s="113"/>
       <c r="E98" s="11" t="s">
         <v>205</v>
       </c>
@@ -22769,10 +21670,10 @@
       <c r="B99" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="119" t="s">
+      <c r="C99" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="D99" s="120"/>
+      <c r="D99" s="118"/>
       <c r="E99" s="15" t="s">
         <v>205</v>
       </c>
@@ -22796,10 +21697,10 @@
       <c r="B100" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="119" t="s">
+      <c r="C100" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="D100" s="120"/>
+      <c r="D100" s="118"/>
       <c r="E100" s="11" t="s">
         <v>205</v>
       </c>
@@ -22823,10 +21724,10 @@
       <c r="B101" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="114" t="s">
+      <c r="C101" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="D101" s="115"/>
+      <c r="D101" s="113"/>
       <c r="E101" s="13" t="s">
         <v>7</v>
       </c>
@@ -22850,10 +21751,10 @@
       <c r="B102" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="114" t="s">
+      <c r="C102" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="D102" s="115"/>
+      <c r="D102" s="113"/>
       <c r="E102" s="13" t="s">
         <v>7</v>
       </c>
@@ -22877,10 +21778,10 @@
       <c r="B103" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="114" t="s">
+      <c r="C103" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D103" s="115"/>
+      <c r="D103" s="113"/>
       <c r="E103" s="13" t="s">
         <v>7</v>
       </c>
@@ -22904,10 +21805,10 @@
       <c r="B104" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C104" s="114" t="s">
+      <c r="C104" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D104" s="115"/>
+      <c r="D104" s="113"/>
       <c r="E104" s="13" t="s">
         <v>7</v>
       </c>
@@ -22931,10 +21832,10 @@
       <c r="B105" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C105" s="114" t="s">
+      <c r="C105" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D105" s="115"/>
+      <c r="D105" s="113"/>
       <c r="E105" s="13" t="s">
         <v>7</v>
       </c>
@@ -22958,10 +21859,10 @@
       <c r="B106" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C106" s="114" t="s">
+      <c r="C106" s="112" t="s">
         <v>262</v>
       </c>
-      <c r="D106" s="115"/>
+      <c r="D106" s="113"/>
       <c r="E106" s="13" t="s">
         <v>7</v>
       </c>
@@ -22985,10 +21886,10 @@
       <c r="B107" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C107" s="114" t="s">
+      <c r="C107" s="112" t="s">
         <v>262</v>
       </c>
-      <c r="D107" s="115"/>
+      <c r="D107" s="113"/>
       <c r="E107" s="13" t="s">
         <v>7</v>
       </c>
@@ -23007,14 +21908,14 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
-      <c r="B108" s="116" t="s">
+      <c r="B108" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="117"/>
-      <c r="D108" s="117"/>
-      <c r="E108" s="117"/>
-      <c r="F108" s="117"/>
-      <c r="G108" s="118"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
+      <c r="F108" s="115"/>
+      <c r="G108" s="116"/>
       <c r="H108" s="16"/>
       <c r="I108" s="8" t="s">
         <v>263</v>
@@ -23145,7 +22046,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23156,8 +22057,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>429</v>
+      <c r="A1" s="79" t="s">
+        <v>398</v>
       </c>
       <c r="B1" s="5">
         <v>2018</v>
@@ -23264,43 +22165,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f>Calculation!B2</f>
-        <v>2710</v>
-      </c>
-      <c r="C2" s="6">
-        <f>Calculation!C2</f>
-        <v>3361.38</v>
-      </c>
-      <c r="D2" s="6">
         <f>Calculation!D2</f>
         <v>1989</v>
       </c>
-      <c r="E2" s="6">
+      <c r="C2" s="6">
         <f>Calculation!E2</f>
-        <v>2545</v>
-      </c>
-      <c r="F2" s="6">
+        <v>1295</v>
+      </c>
+      <c r="D2" s="6">
         <f>Calculation!F2</f>
         <v>4423.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="E2" s="6">
         <f>Calculation!G2</f>
         <v>4423.2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="F2" s="6">
         <f>Calculation!H2</f>
         <v>5114.3999999999996</v>
       </c>
-      <c r="I2" s="6">
+      <c r="G2" s="6">
         <f>Calculation!I2</f>
         <v>5114.3999999999996</v>
       </c>
-      <c r="J2" s="6">
+      <c r="H2" s="6">
         <f>Calculation!J2</f>
         <v>5114.3999999999996</v>
       </c>
+      <c r="I2" s="6">
+        <f>Calculation!K2</f>
+        <v>5114.3999999999996</v>
+      </c>
+      <c r="J2" s="6">
+        <f>Calculation!L2</f>
+        <v>5114.3999999999996</v>
+      </c>
       <c r="K2" s="6">
-        <f>Calculation!K2</f>
+        <f>Calculation!M2</f>
         <v>5114.3999999999996</v>
       </c>
       <c r="L2" s="6">
@@ -23400,43 +22301,43 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <f>Calculation!B3</f>
-        <v>90</v>
+        <f>Calculation!D3</f>
+        <v>213.15999999999985</v>
       </c>
       <c r="C3" s="6">
-        <f>Calculation!C3</f>
-        <v>194</v>
+        <f>Calculation!E3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>Calculation!D3</f>
-        <v>30</v>
+        <f>Calculation!F3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f>Calculation!E3</f>
+        <f>Calculation!G3</f>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>Calculation!F3</f>
+        <f>Calculation!H3</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>Calculation!G3</f>
+        <f>Calculation!I3</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>Calculation!H3</f>
+        <f>Calculation!J3</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>Calculation!I3</f>
+        <f>Calculation!K3</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>Calculation!J3</f>
+        <f>Calculation!L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>Calculation!K3</f>
+        <f>Calculation!M3</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
@@ -24496,43 +23397,43 @@
         <v>14</v>
       </c>
       <c r="B11" s="6">
-        <f>Calculation!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <f>Calculation!C11</f>
-        <v>231.3</v>
-      </c>
-      <c r="D11" s="6">
         <f>Calculation!D11</f>
         <v>200</v>
       </c>
-      <c r="E11" s="6">
+      <c r="C11" s="6">
         <f>Calculation!E11</f>
         <v>127.92</v>
       </c>
+      <c r="D11" s="6">
+        <f>Calculation!F11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <f>Calculation!G11</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="6">
-        <f>Calculation!F11</f>
+        <f>Calculation!H11</f>
         <v>0</v>
       </c>
       <c r="G11" s="6">
-        <f>Calculation!G11</f>
+        <f>Calculation!I11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f>Calculation!H11</f>
+        <f>Calculation!J11</f>
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f>Calculation!I11</f>
+        <f>Calculation!K11</f>
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <f>Calculation!J11</f>
+        <f>Calculation!L11</f>
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <f>Calculation!K11</f>
+        <f>Calculation!M11</f>
         <v>0</v>
       </c>
       <c r="L11" s="6">
@@ -24770,43 +23671,43 @@
         <v>16</v>
       </c>
       <c r="B13" s="6">
-        <f>Calculation!B13</f>
+        <f>Calculation!D13</f>
         <v>0</v>
       </c>
       <c r="C13" s="6">
-        <f>Calculation!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <f>Calculation!D13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
         <f>Calculation!E13</f>
         <v>100</v>
       </c>
-      <c r="F13" s="6">
+      <c r="D13" s="6">
         <f>Calculation!F13</f>
         <v>120</v>
       </c>
-      <c r="G13" s="6">
+      <c r="E13" s="6">
         <f>Calculation!G13</f>
         <v>120</v>
       </c>
+      <c r="F13" s="6">
+        <f>Calculation!H13</f>
+        <v>120</v>
+      </c>
+      <c r="G13" s="6">
+        <f>Calculation!I13</f>
+        <v>0</v>
+      </c>
       <c r="H13" s="6">
-        <f>Calculation!H13</f>
+        <f>Calculation!J13</f>
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <f>Calculation!I13</f>
+        <f>Calculation!K13</f>
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f>Calculation!J13</f>
+        <f>Calculation!L13</f>
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <f>Calculation!K13</f>
+        <f>Calculation!M13</f>
         <v>0</v>
       </c>
       <c r="L13" s="6">
@@ -25041,7 +23942,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -25145,7 +24046,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -25249,7 +24150,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="B17">
         <v>0</v>
